--- a/REGISTOS/registo.xlsx
+++ b/REGISTOS/registo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
     <t>Ordem Produção</t>
   </si>
@@ -52,19 +52,61 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>OP_6/6/2022_P1</t>
-  </si>
-  <si>
-    <t>OP_6/6/2022_P2</t>
-  </si>
-  <si>
-    <t>OP_6/6/2022_P3</t>
-  </si>
-  <si>
-    <t>6/6/2022_T1</t>
-  </si>
-  <si>
-    <t>6/6/2022_T2</t>
+    <t>OP_2022/06/06_P001</t>
+  </si>
+  <si>
+    <t>OP_2022/06/06_P002</t>
+  </si>
+  <si>
+    <t>OP_2022/06/06_P003</t>
+  </si>
+  <si>
+    <t>OP_2022/06/06_P004</t>
+  </si>
+  <si>
+    <t>OP_2022/06/06_P005</t>
+  </si>
+  <si>
+    <t>OP_2022/06/06_P006</t>
+  </si>
+  <si>
+    <t>OP_2022/06/06_P007</t>
+  </si>
+  <si>
+    <t>OP_2022/06/06_P008</t>
+  </si>
+  <si>
+    <t>OP_2022/06/07_P001</t>
+  </si>
+  <si>
+    <t>OP_2022/06/07_P002</t>
+  </si>
+  <si>
+    <t>OP_2022/06/07_P003</t>
+  </si>
+  <si>
+    <t>2022/06/06_T01</t>
+  </si>
+  <si>
+    <t>2022/06/06_T02</t>
+  </si>
+  <si>
+    <t>2022/06/06_T03</t>
+  </si>
+  <si>
+    <t>2022/06/06_T04</t>
+  </si>
+  <si>
+    <t>2022/06/06_T05</t>
+  </si>
+  <si>
+    <t>2022/06/07_T01</t>
+  </si>
+  <si>
+    <t>2022/06/07_T02</t>
+  </si>
+  <si>
+    <t>2022/06/07_T03</t>
   </si>
   <si>
     <t>LF-3015</t>
@@ -73,13 +115,25 @@
     <t>LC5</t>
   </si>
   <si>
+    <t>COOLFER/2021_02_19 SUSEN 40</t>
+  </si>
+  <si>
+    <t>ESTUDIO D1/2021_02_11 ENCL 220/584 (SEGUNDO CONTENTOR)</t>
+  </si>
+  <si>
     <t>MOVSTEEL/2021_02_22 ENCL 221/68</t>
   </si>
   <si>
     <t>MPLASTIC/2021_02_23 SUSEN 53</t>
   </si>
   <si>
-    <t>ESTUDIO D1/2021_02_11 ENCL 220/584 (SEGUNDO CONTENTOR)</t>
+    <t>MPLASTIC/TUBO/2021.02.23 TUBO MPLASTIC Ø101.6</t>
+  </si>
+  <si>
+    <t>COOLFER</t>
+  </si>
+  <si>
+    <t>ESTUDIO D1</t>
   </si>
   <si>
     <t>MOVSTEEL - TRANSFORMAÇAO DE METAIS, LDA.</t>
@@ -88,7 +142,10 @@
     <t>MPLASTIC</t>
   </si>
   <si>
-    <t>ESTUDIO D1</t>
+    <t>SUSEN 40</t>
+  </si>
+  <si>
+    <t>SEGUNDO CONTENTOR</t>
   </si>
   <si>
     <t xml:space="preserve">ENCL 221/68 </t>
@@ -97,22 +154,34 @@
     <t>SUSEN 53</t>
   </si>
   <si>
-    <t>SEGUNDO CONTENTOR</t>
-  </si>
-  <si>
     <t>Inox</t>
   </si>
   <si>
     <t>Ferro</t>
   </si>
   <si>
+    <t>304-2B</t>
+  </si>
+  <si>
     <t>304-Escov.</t>
   </si>
   <si>
+    <t>S235</t>
+  </si>
+  <si>
     <t>Escov.</t>
   </si>
   <si>
-    <t>S235</t>
+    <t>3.0mm</t>
+  </si>
+  <si>
+    <t>1.2mm</t>
+  </si>
+  <si>
+    <t>2.5mm</t>
+  </si>
+  <si>
+    <t>4.0mm</t>
   </si>
   <si>
     <t>2.0mm</t>
@@ -121,31 +190,52 @@
     <t>5.0mm</t>
   </si>
   <si>
-    <t>2.5mm</t>
+    <t>1.5mm</t>
   </si>
   <si>
     <t>Prilux</t>
   </si>
   <si>
+    <t>DOBRADIÇA DA BLINDAGEM SPEC01</t>
+  </si>
+  <si>
+    <t>SUPORTE DO VENTILADOR SPEC01 V1</t>
+  </si>
+  <si>
+    <t>TAMPA DO SUPORTE DO VENTILADOR</t>
+  </si>
+  <si>
+    <t>PATILHA DA PROTEÇAO DO COMANDO</t>
+  </si>
+  <si>
+    <t>SUPORTE DA TAMPA V2 SPEC01 V1</t>
+  </si>
+  <si>
+    <t>p026-101-002</t>
+  </si>
+  <si>
+    <t>p019-101-009</t>
+  </si>
+  <si>
+    <t>p019-301-001b</t>
+  </si>
+  <si>
     <t>PEÇA NEVES1</t>
   </si>
   <si>
     <t>BASE CIRCULAR</t>
   </si>
   <si>
-    <t>p019-301-001b</t>
-  </si>
-  <si>
-    <t>p019-101-001b</t>
-  </si>
-  <si>
-    <t>p019-101-007</t>
+    <t>CILINDRO Ø101.6x1.5MM</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
 </sst>
 </file>
@@ -503,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,37 +642,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -590,151 +680,379 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="L4">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="K6" t="s">
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="L6" t="s">
-        <v>43</v>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
